--- a/DATA_TABLES AND EXCEL EXAMPLES AND CONCEPTS AND METHODS/EXCEL APPLICATION ACTIVITIES ALL/COPY_SHEET/Copy_Sheet.xlsx
+++ b/DATA_TABLES AND EXCEL EXAMPLES AND CONCEPTS AND METHODS/EXCEL APPLICATION ACTIVITIES ALL/COPY_SHEET/Copy_Sheet.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
